--- a/叻三度_新.xlsx
+++ b/叻三度_新.xlsx
@@ -727,7 +727,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY339"/>
+  <dimension ref="A1:AY346"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
@@ -55308,6 +55308,1630 @@
         </is>
       </c>
     </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>2022-03-19</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>150.00</t>
+        </is>
+      </c>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D340" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E340" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="F340" t="inlineStr">
+        <is>
+          <t>158</t>
+        </is>
+      </c>
+      <c r="G340" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="H340" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="I340" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="J340" t="inlineStr">
+        <is>
+          <t>502</t>
+        </is>
+      </c>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>2,904</t>
+        </is>
+      </c>
+      <c r="L340" t="inlineStr">
+        <is>
+          <t>12.5</t>
+        </is>
+      </c>
+      <c r="M340" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="N340" t="inlineStr">
+        <is>
+          <t>1614</t>
+        </is>
+      </c>
+      <c r="O340" t="inlineStr">
+        <is>
+          <t>502</t>
+        </is>
+      </c>
+      <c r="P340" t="inlineStr">
+        <is>
+          <t>1112</t>
+        </is>
+      </c>
+      <c r="Q340" t="inlineStr">
+        <is>
+          <t>3265.50</t>
+        </is>
+      </c>
+      <c r="R340" t="inlineStr">
+        <is>
+          <t>926.50</t>
+        </is>
+      </c>
+      <c r="S340" t="inlineStr">
+        <is>
+          <t>926.50</t>
+        </is>
+      </c>
+      <c r="T340" t="inlineStr">
+        <is>
+          <t>2493</t>
+        </is>
+      </c>
+      <c r="U340" t="inlineStr">
+        <is>
+          <t>1109</t>
+        </is>
+      </c>
+      <c r="V340" t="inlineStr">
+        <is>
+          <t>1109</t>
+        </is>
+      </c>
+      <c r="W340" t="inlineStr">
+        <is>
+          <t>357</t>
+        </is>
+      </c>
+      <c r="X340" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Y340" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Z340" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AA340" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+      <c r="AB340" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="AC340" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="AD340" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="AE340" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AF340" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG340" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="AL340" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AM340" t="inlineStr">
+        <is>
+          <t>珠海_叻三度单人餐[19.9]</t>
+        </is>
+      </c>
+      <c r="AN340" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="AO340" t="inlineStr">
+        <is>
+          <t>159.2</t>
+        </is>
+      </c>
+      <c r="AP340" t="inlineStr">
+        <is>
+          <t>珠海_叻三度代金券[45.0]</t>
+        </is>
+      </c>
+      <c r="AQ340" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="AR340" t="inlineStr">
+        <is>
+          <t>270.0</t>
+        </is>
+      </c>
+      <c r="AS340" t="inlineStr">
+        <is>
+          <t>珠海_叻三度2人餐[89.9]</t>
+        </is>
+      </c>
+      <c r="AT340" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="AU340" t="inlineStr">
+        <is>
+          <t>449.5</t>
+        </is>
+      </c>
+      <c r="AV340" t="inlineStr">
+        <is>
+          <t>珠海_叻三度单人餐[23.9]</t>
+        </is>
+      </c>
+      <c r="AW340" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AX340" t="inlineStr">
+        <is>
+          <t>47.8</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>2022-03-19</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>150.00</t>
+        </is>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D341" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E341" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="F341" t="inlineStr">
+        <is>
+          <t>158</t>
+        </is>
+      </c>
+      <c r="G341" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="H341" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="I341" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="J341" t="inlineStr">
+        <is>
+          <t>502</t>
+        </is>
+      </c>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>2,904</t>
+        </is>
+      </c>
+      <c r="L341" t="inlineStr">
+        <is>
+          <t>12.5</t>
+        </is>
+      </c>
+      <c r="M341" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="N341" t="inlineStr">
+        <is>
+          <t>1614</t>
+        </is>
+      </c>
+      <c r="O341" t="inlineStr">
+        <is>
+          <t>502</t>
+        </is>
+      </c>
+      <c r="P341" t="inlineStr">
+        <is>
+          <t>1112</t>
+        </is>
+      </c>
+      <c r="Q341" t="inlineStr">
+        <is>
+          <t>3265.50</t>
+        </is>
+      </c>
+      <c r="R341" t="inlineStr">
+        <is>
+          <t>926.50</t>
+        </is>
+      </c>
+      <c r="S341" t="inlineStr">
+        <is>
+          <t>926.50</t>
+        </is>
+      </c>
+      <c r="T341" t="inlineStr">
+        <is>
+          <t>2493</t>
+        </is>
+      </c>
+      <c r="U341" t="inlineStr">
+        <is>
+          <t>1109</t>
+        </is>
+      </c>
+      <c r="V341" t="inlineStr">
+        <is>
+          <t>1109</t>
+        </is>
+      </c>
+      <c r="W341" t="inlineStr">
+        <is>
+          <t>357</t>
+        </is>
+      </c>
+      <c r="X341" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Y341" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Z341" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AA341" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+      <c r="AB341" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="AC341" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="AD341" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="AE341" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AF341" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG341" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="AL341" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AM341" t="inlineStr">
+        <is>
+          <t>珠海_叻三度单人餐[19.9]</t>
+        </is>
+      </c>
+      <c r="AN341" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="AO341" t="inlineStr">
+        <is>
+          <t>159.2</t>
+        </is>
+      </c>
+      <c r="AP341" t="inlineStr">
+        <is>
+          <t>珠海_叻三度代金券[45.0]</t>
+        </is>
+      </c>
+      <c r="AQ341" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="AR341" t="inlineStr">
+        <is>
+          <t>270.0</t>
+        </is>
+      </c>
+      <c r="AS341" t="inlineStr">
+        <is>
+          <t>珠海_叻三度2人餐[89.9]</t>
+        </is>
+      </c>
+      <c r="AT341" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="AU341" t="inlineStr">
+        <is>
+          <t>449.5</t>
+        </is>
+      </c>
+      <c r="AV341" t="inlineStr">
+        <is>
+          <t>珠海_叻三度单人餐[23.9]</t>
+        </is>
+      </c>
+      <c r="AW341" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AX341" t="inlineStr">
+        <is>
+          <t>47.8</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>2022-03-19</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>150.00</t>
+        </is>
+      </c>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D342" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E342" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="F342" t="inlineStr">
+        <is>
+          <t>158</t>
+        </is>
+      </c>
+      <c r="G342" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="H342" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="I342" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="J342" t="inlineStr">
+        <is>
+          <t>502</t>
+        </is>
+      </c>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>2,904</t>
+        </is>
+      </c>
+      <c r="L342" t="inlineStr">
+        <is>
+          <t>12.5</t>
+        </is>
+      </c>
+      <c r="M342" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="N342" t="inlineStr">
+        <is>
+          <t>1614</t>
+        </is>
+      </c>
+      <c r="O342" t="inlineStr">
+        <is>
+          <t>502</t>
+        </is>
+      </c>
+      <c r="P342" t="inlineStr">
+        <is>
+          <t>1112</t>
+        </is>
+      </c>
+      <c r="Q342" t="inlineStr">
+        <is>
+          <t>3265.50</t>
+        </is>
+      </c>
+      <c r="R342" t="inlineStr">
+        <is>
+          <t>926.50</t>
+        </is>
+      </c>
+      <c r="S342" t="inlineStr">
+        <is>
+          <t>926.50</t>
+        </is>
+      </c>
+      <c r="T342" t="inlineStr">
+        <is>
+          <t>2493</t>
+        </is>
+      </c>
+      <c r="U342" t="inlineStr">
+        <is>
+          <t>1109</t>
+        </is>
+      </c>
+      <c r="V342" t="inlineStr">
+        <is>
+          <t>1109</t>
+        </is>
+      </c>
+      <c r="W342" t="inlineStr">
+        <is>
+          <t>357</t>
+        </is>
+      </c>
+      <c r="X342" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Y342" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Z342" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AA342" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+      <c r="AB342" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="AC342" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="AD342" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="AE342" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AF342" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG342" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="AL342" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AM342" t="inlineStr">
+        <is>
+          <t>珠海_叻三度单人餐[19.9]</t>
+        </is>
+      </c>
+      <c r="AN342" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="AO342" t="inlineStr">
+        <is>
+          <t>159.2</t>
+        </is>
+      </c>
+      <c r="AP342" t="inlineStr">
+        <is>
+          <t>珠海_叻三度代金券[45.0]</t>
+        </is>
+      </c>
+      <c r="AQ342" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="AR342" t="inlineStr">
+        <is>
+          <t>270.0</t>
+        </is>
+      </c>
+      <c r="AS342" t="inlineStr">
+        <is>
+          <t>珠海_叻三度2人餐[89.9]</t>
+        </is>
+      </c>
+      <c r="AT342" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="AU342" t="inlineStr">
+        <is>
+          <t>449.5</t>
+        </is>
+      </c>
+      <c r="AV342" t="inlineStr">
+        <is>
+          <t>珠海_叻三度单人餐[23.9]</t>
+        </is>
+      </c>
+      <c r="AW342" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AX342" t="inlineStr">
+        <is>
+          <t>47.8</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>2022-03-19</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>150.00</t>
+        </is>
+      </c>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D343" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E343" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="F343" t="inlineStr">
+        <is>
+          <t>158</t>
+        </is>
+      </c>
+      <c r="G343" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="H343" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="I343" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="J343" t="inlineStr">
+        <is>
+          <t>502</t>
+        </is>
+      </c>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>2,904</t>
+        </is>
+      </c>
+      <c r="L343" t="inlineStr">
+        <is>
+          <t>12.5</t>
+        </is>
+      </c>
+      <c r="M343" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="N343" t="inlineStr">
+        <is>
+          <t>1614</t>
+        </is>
+      </c>
+      <c r="O343" t="inlineStr">
+        <is>
+          <t>502</t>
+        </is>
+      </c>
+      <c r="P343" t="inlineStr">
+        <is>
+          <t>1112</t>
+        </is>
+      </c>
+      <c r="Q343" t="inlineStr">
+        <is>
+          <t>3265.50</t>
+        </is>
+      </c>
+      <c r="R343" t="inlineStr">
+        <is>
+          <t>926.50</t>
+        </is>
+      </c>
+      <c r="S343" t="inlineStr">
+        <is>
+          <t>926.50</t>
+        </is>
+      </c>
+      <c r="T343" t="inlineStr">
+        <is>
+          <t>2493</t>
+        </is>
+      </c>
+      <c r="U343" t="inlineStr">
+        <is>
+          <t>1109</t>
+        </is>
+      </c>
+      <c r="V343" t="inlineStr">
+        <is>
+          <t>1109</t>
+        </is>
+      </c>
+      <c r="W343" t="inlineStr">
+        <is>
+          <t>357</t>
+        </is>
+      </c>
+      <c r="X343" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Y343" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Z343" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AA343" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+      <c r="AB343" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="AC343" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="AD343" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="AE343" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AF343" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG343" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="AL343" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AM343" t="inlineStr">
+        <is>
+          <t>珠海_叻三度单人餐[19.9]</t>
+        </is>
+      </c>
+      <c r="AN343" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="AO343" t="inlineStr">
+        <is>
+          <t>159.2</t>
+        </is>
+      </c>
+      <c r="AP343" t="inlineStr">
+        <is>
+          <t>珠海_叻三度代金券[45.0]</t>
+        </is>
+      </c>
+      <c r="AQ343" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="AR343" t="inlineStr">
+        <is>
+          <t>270.0</t>
+        </is>
+      </c>
+      <c r="AS343" t="inlineStr">
+        <is>
+          <t>珠海_叻三度2人餐[89.9]</t>
+        </is>
+      </c>
+      <c r="AT343" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="AU343" t="inlineStr">
+        <is>
+          <t>449.5</t>
+        </is>
+      </c>
+      <c r="AV343" t="inlineStr">
+        <is>
+          <t>珠海_叻三度单人餐[23.9]</t>
+        </is>
+      </c>
+      <c r="AW343" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AX343" t="inlineStr">
+        <is>
+          <t>47.8</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>2022-03-20</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>150.00</t>
+        </is>
+      </c>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D344" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E344" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="F344" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="G344" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H344" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="I344" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="J344" t="inlineStr">
+        <is>
+          <t>352</t>
+        </is>
+      </c>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>3,379</t>
+        </is>
+      </c>
+      <c r="L344" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="M344" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="N344" t="inlineStr">
+        <is>
+          <t>1236</t>
+        </is>
+      </c>
+      <c r="O344" t="inlineStr">
+        <is>
+          <t>352</t>
+        </is>
+      </c>
+      <c r="P344" t="inlineStr">
+        <is>
+          <t>884</t>
+        </is>
+      </c>
+      <c r="Q344" t="inlineStr">
+        <is>
+          <t>2061.70</t>
+        </is>
+      </c>
+      <c r="R344" t="inlineStr">
+        <is>
+          <t>278.70</t>
+        </is>
+      </c>
+      <c r="S344" t="inlineStr">
+        <is>
+          <t>278.70</t>
+        </is>
+      </c>
+      <c r="T344" t="inlineStr">
+        <is>
+          <t>1783</t>
+        </is>
+      </c>
+      <c r="U344" t="inlineStr">
+        <is>
+          <t>882</t>
+        </is>
+      </c>
+      <c r="V344" t="inlineStr">
+        <is>
+          <t>882</t>
+        </is>
+      </c>
+      <c r="W344" t="inlineStr">
+        <is>
+          <t>301</t>
+        </is>
+      </c>
+      <c r="X344" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y344" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z344" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AA344" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+      <c r="AB344" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="AC344" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="AD344" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="AE344" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF344" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG344" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="AL344" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="AM344" t="inlineStr">
+        <is>
+          <t>珠海_叻三度单人餐[19.9]</t>
+        </is>
+      </c>
+      <c r="AN344" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="AO344" t="inlineStr">
+        <is>
+          <t>159.2</t>
+        </is>
+      </c>
+      <c r="AP344" t="inlineStr">
+        <is>
+          <t>珠海_叻三度代金券[45.0]</t>
+        </is>
+      </c>
+      <c r="AQ344" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR344" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AS344" t="inlineStr">
+        <is>
+          <t>珠海_叻三度2人餐[89.9]</t>
+        </is>
+      </c>
+      <c r="AT344" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AU344" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AV344" t="inlineStr">
+        <is>
+          <t>珠海_叻三度单人餐[23.9]</t>
+        </is>
+      </c>
+      <c r="AW344" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="AX344" t="inlineStr">
+        <is>
+          <t>119.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>2022-03-20</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>150.00</t>
+        </is>
+      </c>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D345" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E345" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="F345" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="G345" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H345" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="I345" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="J345" t="inlineStr">
+        <is>
+          <t>352</t>
+        </is>
+      </c>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>3,379</t>
+        </is>
+      </c>
+      <c r="L345" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="M345" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="N345" t="inlineStr">
+        <is>
+          <t>1236</t>
+        </is>
+      </c>
+      <c r="O345" t="inlineStr">
+        <is>
+          <t>352</t>
+        </is>
+      </c>
+      <c r="P345" t="inlineStr">
+        <is>
+          <t>884</t>
+        </is>
+      </c>
+      <c r="Q345" t="inlineStr">
+        <is>
+          <t>2061.70</t>
+        </is>
+      </c>
+      <c r="R345" t="inlineStr">
+        <is>
+          <t>278.70</t>
+        </is>
+      </c>
+      <c r="S345" t="inlineStr">
+        <is>
+          <t>278.70</t>
+        </is>
+      </c>
+      <c r="T345" t="inlineStr">
+        <is>
+          <t>1783</t>
+        </is>
+      </c>
+      <c r="U345" t="inlineStr">
+        <is>
+          <t>882</t>
+        </is>
+      </c>
+      <c r="V345" t="inlineStr">
+        <is>
+          <t>882</t>
+        </is>
+      </c>
+      <c r="W345" t="inlineStr">
+        <is>
+          <t>301</t>
+        </is>
+      </c>
+      <c r="X345" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y345" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z345" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AA345" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+      <c r="AB345" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="AC345" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="AD345" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="AE345" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF345" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG345" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="AL345" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="AM345" t="inlineStr">
+        <is>
+          <t>珠海_叻三度单人餐[19.9]</t>
+        </is>
+      </c>
+      <c r="AN345" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="AO345" t="inlineStr">
+        <is>
+          <t>159.2</t>
+        </is>
+      </c>
+      <c r="AP345" t="inlineStr">
+        <is>
+          <t>珠海_叻三度代金券[45.0]</t>
+        </is>
+      </c>
+      <c r="AQ345" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR345" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AS345" t="inlineStr">
+        <is>
+          <t>珠海_叻三度2人餐[89.9]</t>
+        </is>
+      </c>
+      <c r="AT345" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AU345" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AV345" t="inlineStr">
+        <is>
+          <t>珠海_叻三度单人餐[23.9]</t>
+        </is>
+      </c>
+      <c r="AW345" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="AX345" t="inlineStr">
+        <is>
+          <t>119.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>2022-03-20</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>150.00</t>
+        </is>
+      </c>
+      <c r="C346" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D346" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E346" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="F346" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="G346" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H346" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="I346" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="J346" t="inlineStr">
+        <is>
+          <t>352</t>
+        </is>
+      </c>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>3,379</t>
+        </is>
+      </c>
+      <c r="L346" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="M346" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="N346" t="inlineStr">
+        <is>
+          <t>1236</t>
+        </is>
+      </c>
+      <c r="O346" t="inlineStr">
+        <is>
+          <t>352</t>
+        </is>
+      </c>
+      <c r="P346" t="inlineStr">
+        <is>
+          <t>884</t>
+        </is>
+      </c>
+      <c r="Q346" t="inlineStr">
+        <is>
+          <t>2061.70</t>
+        </is>
+      </c>
+      <c r="R346" t="inlineStr">
+        <is>
+          <t>278.70</t>
+        </is>
+      </c>
+      <c r="S346" t="inlineStr">
+        <is>
+          <t>278.70</t>
+        </is>
+      </c>
+      <c r="T346" t="inlineStr">
+        <is>
+          <t>1783</t>
+        </is>
+      </c>
+      <c r="U346" t="inlineStr">
+        <is>
+          <t>882</t>
+        </is>
+      </c>
+      <c r="V346" t="inlineStr">
+        <is>
+          <t>882</t>
+        </is>
+      </c>
+      <c r="W346" t="inlineStr">
+        <is>
+          <t>301</t>
+        </is>
+      </c>
+      <c r="X346" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y346" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z346" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AA346" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+      <c r="AB346" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="AC346" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="AD346" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="AE346" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF346" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG346" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="AL346" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="AM346" t="inlineStr">
+        <is>
+          <t>珠海_叻三度单人餐[19.9]</t>
+        </is>
+      </c>
+      <c r="AN346" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="AO346" t="inlineStr">
+        <is>
+          <t>159.2</t>
+        </is>
+      </c>
+      <c r="AP346" t="inlineStr">
+        <is>
+          <t>珠海_叻三度代金券[45.0]</t>
+        </is>
+      </c>
+      <c r="AQ346" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR346" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AS346" t="inlineStr">
+        <is>
+          <t>珠海_叻三度2人餐[89.9]</t>
+        </is>
+      </c>
+      <c r="AT346" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AU346" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AV346" t="inlineStr">
+        <is>
+          <t>珠海_叻三度单人餐[23.9]</t>
+        </is>
+      </c>
+      <c r="AW346" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="AX346" t="inlineStr">
+        <is>
+          <t>119.5</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
